--- a/src/test/java/com/testData/LoginData.xlsx
+++ b/src/test/java/com/testData/LoginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A83809-B41C-4823-BF23-D571DF8FE846}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18035986-0066-40B0-A836-4FA36C90F431}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35385" yWindow="3420" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,36 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>mngr83460</t>
+    <t>clicks</t>
   </si>
   <si>
-    <t>qAbUzyj</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>mngr112909</t>
-  </si>
-  <si>
-    <t>tytUreg</t>
-  </si>
-  <si>
-    <t>mngr137319</t>
-  </si>
-  <si>
-    <t>bAdYvyb</t>
-  </si>
-  <si>
-    <t>mngr164225</t>
-  </si>
-  <si>
-    <t>jahetAp</t>
+    <t>counts</t>
   </si>
 </sst>
 </file>
@@ -442,7 +418,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,50 +429,50 @@
   <sheetData>
     <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="B4" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="A6" s="2">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/com/testData/LoginData.xlsx
+++ b/src/test/java/com/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18035986-0066-40B0-A836-4FA36C90F431}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC93CE-A4BB-48F6-980F-63E73585C5AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35385" yWindow="3420" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31965" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -93,14 +93,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,6 +487,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>100</v>
+      </c>
+      <c r="B7" s="3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="3">
+        <v>200</v>
+      </c>
+      <c r="B8" s="3">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/java/com/testData/LoginData.xlsx
+++ b/src/test/java/com/testData/LoginData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BEC93CE-A4BB-48F6-980F-63E73585C5AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF07D565-64F9-4E8B-AFA9-18AC84997A19}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31965" yWindow="390" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -492,7 +492,7 @@
         <v>100</v>
       </c>
       <c r="B7" s="3">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -501,6 +501,14 @@
       </c>
       <c r="B8" s="3">
         <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="3">
+        <v>807</v>
+      </c>
+      <c r="B9" s="3">
+        <v>807</v>
       </c>
     </row>
   </sheetData>
